--- a/with_DDT/feature_message/message.testcases.xlsx
+++ b/with_DDT/feature_message/message.testcases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>tc_id</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>Message sent</t>
+  </si>
+  <si>
+    <t>tc-02</t>
+  </si>
+  <si>
+    <t>Normal text send message 2</t>
+  </si>
+  <si>
+    <t>Send a message with normal text 2</t>
   </si>
 </sst>
 </file>
@@ -397,16 +406,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="38.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="47.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="57.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -423,7 +432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -434,6 +443,20 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/with_DDT/feature_message/message.testcases.xlsx
+++ b/with_DDT/feature_message/message.testcases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>tc_id</t>
   </si>
@@ -43,10 +43,31 @@
     <t>tc-02</t>
   </si>
   <si>
-    <t>Normal text send message 2</t>
-  </si>
-  <si>
-    <t>Send a message with normal text 2</t>
+    <t>Message with numbers</t>
+  </si>
+  <si>
+    <t>tc-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message with special characters </t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()_+-={}[]:";'&lt;&gt;?,./|</t>
+  </si>
+  <si>
+    <t>tc-04</t>
+  </si>
+  <si>
+    <t>Message with multiple lines</t>
+  </si>
+  <si>
+    <t>This is line 1\nThis is line 2\nThis is line 3</t>
+  </si>
+  <si>
+    <t>tc-05</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
   </si>
 </sst>
 </file>
@@ -96,9 +117,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -406,16 +433,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="38.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="47.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="57.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="72.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="47.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="57.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -432,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -446,17 +473,59 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
